--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3546867.28465719</v>
+        <v>3650893.336517697</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7656477.740462084</v>
+        <v>7620318.028180529</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6941418399146</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>23.34416082770993</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>195.3024407805244</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>163.0249101386754</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6.435410414717274</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>20.92365879439235</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20.95866062610969</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>18.22873548519491</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>32.17750073590276</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>237.743922003781</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>63.36332646735467</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>114.3606976213222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89996056624796</v>
+        <v>120.4589790596679</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>4.019807611472472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>64.40601307690768</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>107.1685137621111</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>207.3024276001676</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>180.438871079516</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>248.409647206592</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,19 +2532,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>205.5383435306678</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876045</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>99.6514066310757</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>275.5575118490387</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>36.86080948088116</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>81.89830436238746</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4147,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>167.3637267182086</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>180.9172429496413</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2196.097994299123</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>958.147330569356</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>547.1614257797485</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>132.0889756247449</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4346,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2582.697834363245</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218343</v>
@@ -4510,28 +4512,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>723.6118131105845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>723.6118131105845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>723.6118131105845</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>434.1946430736239</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X4" t="n">
-        <v>434.1946430736239</v>
+        <v>381.3003822472216</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4020639300938</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484277</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543865</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>899.070885937115</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>899.070885937115</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>488.0849811475074</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>73.01253099250391</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>73.01253099250391</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,7 +4570,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4601,16 +4603,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548399</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4638,16 +4640,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158131</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.6824807009811</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C7" t="n">
-        <v>87.6824807009811</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>87.6824807009811</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>87.6824807009811</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>87.6824807009811</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>87.6824807009811</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>87.6824807009811</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4749,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438286</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379417</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W7" t="n">
-        <v>87.6824807009811</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="X7" t="n">
-        <v>87.6824807009811</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="Y7" t="n">
-        <v>87.6824807009811</v>
+        <v>331.5406302391191</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1977.407367302545</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1608.444850362133</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1608.444850362133</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1222.656597763889</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>811.6706929742811</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>396.5982428192776</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>99.01464242804479</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2769.192029759092</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2769.192029759092</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2769.192029759092</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X8" t="n">
-        <v>2395.726271498012</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4992,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819414</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111862</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075943</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014788</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683109</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237714</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1859.536823237714</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2283.159972732781</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2075.386809063654</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694693</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.26572885224</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,40 +5342,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>842.6091804069429</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951541</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>931.4710609784065</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>762.5348780504996</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>612.4182386381639</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557708</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817739</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5592,22 +5594,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1963.765362972544</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2271.666355830531</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2052.064890853472</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.890000432079</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5792,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.655893893758</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.054428916699</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1434.29471405501</v>
+        <v>1437.467018292492</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1148.049848255532</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>920.0602973575143</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>699.2677182139842</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5981,31 +5983,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6014,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6244,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2342.684238942884</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2297.191819870655</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2077.590354893597</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7011,16 +7013,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7670,28 +7672,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7737,7 +7739,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2058.30734919087</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1769.232122535068</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.232122535068</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1479.814952498107</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>125.5054897610403</v>
+        <v>96.94647126762038</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>161.3036423121295</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>73.85777223953347</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.83521572366038</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5874149221286302</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.727996117236046</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>80.64613085857638</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.7894017452188</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>152.4862366927523</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>10.96548648755225</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>144.1654765207634</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>99.12798163925713</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>13.66255928343602</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>105.2672314396028</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.990947288</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.990947288</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710692</v>
-      </c>
       <c r="M2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710696</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.7441040525</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26436,25 +26438,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496082</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219692</v>
+        <v>-750285.7490219696</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056231</v>
+        <v>578458.996705623</v>
       </c>
       <c r="D6" t="n">
         <v>578458.996705623</v>
       </c>
       <c r="E6" t="n">
-        <v>325427.5820323763</v>
+        <v>325427.5820323784</v>
       </c>
       <c r="F6" t="n">
-        <v>650840.0438397315</v>
+        <v>650840.0438397311</v>
       </c>
       <c r="G6" t="n">
-        <v>650840.0438397315</v>
+        <v>650840.0438397287</v>
       </c>
       <c r="H6" t="n">
         <v>650840.0438397315</v>
@@ -26543,25 +26545,25 @@
         <v>650840.0438397315</v>
       </c>
       <c r="J6" t="n">
-        <v>433308.8414424538</v>
+        <v>433308.841442454</v>
       </c>
       <c r="K6" t="n">
-        <v>634580.2922185617</v>
+        <v>650840.0438397315</v>
       </c>
       <c r="L6" t="n">
-        <v>654008.010212193</v>
+        <v>650840.0438397314</v>
       </c>
       <c r="M6" t="n">
-        <v>568952.9822766815</v>
+        <v>565785.0159042196</v>
       </c>
       <c r="N6" t="n">
-        <v>654008.0102121932</v>
+        <v>650840.0438397313</v>
       </c>
       <c r="O6" t="n">
-        <v>654008.0102121935</v>
+        <v>650840.0438397313</v>
       </c>
       <c r="P6" t="n">
-        <v>650840.0438397311</v>
+        <v>650840.0438397314</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26795,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483723</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>147.578749931093</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>271.2636035596105</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>24.24650849564475</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>55.55974321341941</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>35.14151935820868</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>365.3142798616612</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>75.3937597837284</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>200.3559178668999</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>9.399429037023189</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>13.25124995512101</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>103.8834946312732</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,19 +28064,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>301.1823051500379</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.6892564418556</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043895</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32084,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>638.0665277849478</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,16 +32323,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>661.8411144019726</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>533.6019216797995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932249</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>750.6021172789107</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34457,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>159.0482712280196</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789168</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902574</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>506.7248157016145</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799544</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>395.0475418999253</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098916</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>619.2604051955774</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3650893.336517697</v>
+        <v>3646880.726503705</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>65.33825739391169</v>
       </c>
       <c r="H2" t="n">
-        <v>23.34416082770993</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>23.13730849732382</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.0249101386754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>89.59886223686038</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.92365879439235</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.22873548519491</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>291.1225850805483</v>
       </c>
       <c r="I8" t="n">
-        <v>32.17750073590276</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>114.3606976213222</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722635</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>116.2836593751506</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4589790596679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>64.40601307690768</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>107.1685137621111</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>248.409647206592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.795251606876045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>275.5575118490387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>36.86080948088116</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>81.89830436238746</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>79.05856366754465</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>180.9172429496413</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116518</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176106</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>958.147330569356</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E2" t="n">
-        <v>958.147330569356</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F2" t="n">
-        <v>547.1614257797485</v>
+        <v>174.5072549845447</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0889756247449</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445192</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>236.7730826142592</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>89.88313511634888</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>89.88313511634888</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
         <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452389</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V4" t="n">
-        <v>609.2899331452389</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="W4" t="n">
-        <v>609.2899331452389</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="X4" t="n">
-        <v>381.3003822472216</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.6287558445192</v>
+        <v>384.6861761966524</v>
       </c>
     </row>
     <row r="5">
@@ -4555,7 +4555,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,19 +4597,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3124.811251886912</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
         <v>2030.14327430645</v>
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158131</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.5406302391191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>349.9534943655786</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>349.9534943655786</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>331.5406302391191</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977.407367302545</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1608.444850362133</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>1608.444850362133</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E8" t="n">
-        <v>1222.656597763889</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F8" t="n">
-        <v>811.6706929742811</v>
+        <v>371.6073797998619</v>
       </c>
       <c r="G8" t="n">
-        <v>396.5982428192776</v>
+        <v>360.5753336852625</v>
       </c>
       <c r="H8" t="n">
-        <v>99.01464242804479</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278356</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302545</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.382677567399</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.382677567399</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4992,22 +4992,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>410.0175235133545</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.3409563819414</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111862</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075943</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273882</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803928</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516123</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167369</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683109</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237714</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237714</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732781</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991043</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
         <v>549.6145409888043</v>
@@ -5193,58 +5193,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487561</v>
+        <v>2262.459138039582</v>
       </c>
       <c r="T13" t="n">
-        <v>2075.386809063654</v>
+        <v>2042.857673062523</v>
       </c>
       <c r="U13" t="n">
-        <v>1786.311582407852</v>
+        <v>1753.782446406721</v>
       </c>
       <c r="V13" t="n">
-        <v>1786.311582407852</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="W13" t="n">
-        <v>1496.894412370891</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X13" t="n">
-        <v>1268.904861472874</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="14">
@@ -5257,55 +5257,55 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075775</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5345,37 +5345,37 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273882</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803928</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803928</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803928</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069429</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951541</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190827</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784065</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504996</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381639</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557708</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578604</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578604</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.3858538547</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817739</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2271.666355830531</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2052.064890853472</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.2677182139842</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1437.467018292492</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1148.049848255532</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>920.0602973575143</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.2677182139842</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2342.684238942884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2123.082773965825</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2297.191819870655</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2077.590354893597</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1788.515128237795</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1788.515128237795</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1271.108407302817</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7022,22 +7022,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7317,13 +7317,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>545.3854261579752</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.716390662386</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185657</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>64.74262662649392</v>
       </c>
       <c r="T13" t="n">
-        <v>96.94647126762038</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>161.3036423121295</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>73.85777223953347</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.727996117236046</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7894017452188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>10.96548648755225</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>144.1654765207634</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>99.12798163925713</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>66.3624843553866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>105.2672314396028</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659745.990947288</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659745.990947288</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073527</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405259</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.7441040525</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26435,7 +26435,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219696</v>
+        <v>-750285.7490219695</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.996705623</v>
+        <v>578458.9967056231</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.996705623</v>
+        <v>578458.9967056231</v>
       </c>
       <c r="E6" t="n">
-        <v>325427.5820323784</v>
+        <v>325080.2027780189</v>
       </c>
       <c r="F6" t="n">
-        <v>650840.0438397311</v>
+        <v>650492.6645853745</v>
       </c>
       <c r="G6" t="n">
-        <v>650840.0438397287</v>
+        <v>650492.6645853748</v>
       </c>
       <c r="H6" t="n">
-        <v>650840.0438397315</v>
+        <v>650492.6645853745</v>
       </c>
       <c r="I6" t="n">
-        <v>650840.0438397315</v>
+        <v>650492.6645853746</v>
       </c>
       <c r="J6" t="n">
-        <v>433308.841442454</v>
+        <v>432961.4621880969</v>
       </c>
       <c r="K6" t="n">
-        <v>650840.0438397315</v>
+        <v>650492.6645853743</v>
       </c>
       <c r="L6" t="n">
-        <v>650840.0438397314</v>
+        <v>650492.6645853744</v>
       </c>
       <c r="M6" t="n">
-        <v>565785.0159042196</v>
+        <v>565437.6366498624</v>
       </c>
       <c r="N6" t="n">
-        <v>650840.0438397313</v>
+        <v>650492.6645853744</v>
       </c>
       <c r="O6" t="n">
-        <v>650840.0438397313</v>
+        <v>650492.6645853745</v>
       </c>
       <c r="P6" t="n">
-        <v>650840.0438397314</v>
+        <v>650492.6645853744</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483723</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>345.5834682595417</v>
       </c>
       <c r="H2" t="n">
-        <v>271.2636035596105</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>121.617706416997</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.55974321341941</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>161.3963097220416</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>365.3142798616612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.3559178668999</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.485179306772181</v>
       </c>
       <c r="I8" t="n">
-        <v>9.399429037023189</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>38.07056488597461</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>137.7769457025058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007747</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500379</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418556</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742425</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043895</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007747</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>638.0665277849478</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437227</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485282</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742425</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>661.8411144019726</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>453.7122424932249</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>338.6542681503486</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33499,31 +33499,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>422.1299181110993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396409</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193493</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924714</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774673</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674315</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280196</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789168</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396409</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193493</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924714</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902574</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774673</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764192</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>506.7248157016145</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992783</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625067</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>519.7070804799544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>322.3705304098916</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>196.0580237059041</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37147,31 +37147,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>283.5755383312251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3646880.726503705</v>
+        <v>3648641.25680649</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>65.33825739391169</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>73.44255359698217</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189221</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.13730849732382</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>238.1138357058005</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4217010493342</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>89.59886223686038</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>68.02930569165359</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>291.1225850805483</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>87.20461494092821</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>58.28185552386348</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722635</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>35.41770597126624</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>116.2836593751506</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428256</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979147</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>971.2814123723965</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>585.4931597741522</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5072549845447</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3251.421424036461</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3045.443676420683</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3045.443676420683</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2714.380789077113</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2361.612133806998</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1988.146375545919</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,22 +4427,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.6861761966524</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>384.6861761966524</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>384.6861761966524</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>236.7730826142592</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>89.88313511634888</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>89.88313511634888</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>384.6861761966524</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="W4" t="n">
-        <v>384.6861761966524</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X4" t="n">
-        <v>384.6861761966524</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>384.6861761966524</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F5" t="n">
         <v>119.5410613073141</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3124.811251886912</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2793.748364543341</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4764,13 +4764,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>828.543614500981</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473096</v>
+        <v>470.2779158942305</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490654</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F8" t="n">
-        <v>371.6073797998619</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>360.5753336852625</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
         <v>66.5121164321834</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3237.520351971869</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2700.47971701252</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1584.105971505514</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>125.382677567399</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>125.382677567399</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2262.459138039582</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2042.857673062523</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1753.782446406721</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.097958200834</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1499.097958200834</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1271.108407302817</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159287</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5667,10 +5667,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6919,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7119,13 +7119,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>64.74262662649392</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219413</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
@@ -26331,13 +26331,13 @@
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055057</v>
@@ -26346,7 +26346,7 @@
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
+        <v>14826.69604186741</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186742</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-750285.7490219695</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056231</v>
+        <v>578458.9967056226</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.9967056231</v>
+        <v>578458.9967056232</v>
       </c>
       <c r="E6" t="n">
-        <v>325080.2027780189</v>
+        <v>325392.8441069407</v>
       </c>
       <c r="F6" t="n">
-        <v>650492.6645853745</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="G6" t="n">
-        <v>650492.6645853748</v>
+        <v>650805.3059142955</v>
       </c>
       <c r="H6" t="n">
-        <v>650492.6645853745</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="I6" t="n">
-        <v>650492.6645853746</v>
+        <v>650805.305914296</v>
       </c>
       <c r="J6" t="n">
-        <v>432961.4621880969</v>
+        <v>433274.1035170183</v>
       </c>
       <c r="K6" t="n">
-        <v>650492.6645853743</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="L6" t="n">
-        <v>650492.6645853744</v>
+        <v>650805.3059142957</v>
       </c>
       <c r="M6" t="n">
-        <v>565437.6366498624</v>
+        <v>565750.2779787838</v>
       </c>
       <c r="N6" t="n">
-        <v>650492.6645853744</v>
+        <v>650805.3059142957</v>
       </c>
       <c r="O6" t="n">
-        <v>650492.6645853745</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="P6" t="n">
-        <v>650492.6645853744</v>
+        <v>650805.3059142957</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>345.5834682595417</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>35.74520819119368</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>121.617706416997</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>14.02380761802752</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>150.4543446923773</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>161.3963097220416</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>150.5553476604412</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>3.485179306772181</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>21.98314684724762</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>38.07056488597461</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
